--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15987" windowHeight="4693" xr2:uid="{A105CE4C-1533-4C28-AA0B-591E544F79EA}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15987" windowHeight="4693" xr2:uid="{A105CE4C-1533-4C28-AA0B-591E544F79EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Fold Ratio = 50 %</t>
   </si>
@@ -102,14 +102,61 @@
   </si>
   <si>
     <t>|          100 |          400 |       810.96 |       0.0109 |      100.00% |     1.00e-04 |</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Fold Ratio</t>
+  </si>
+  <si>
+    <t>True Positive Rate</t>
+  </si>
+  <si>
+    <t>F1 Males</t>
+  </si>
+  <si>
+    <t>F1 Female</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>F1 Total</t>
+  </si>
+  <si>
+    <t>eigen good set</t>
+  </si>
+  <si>
+    <t>eigen faces</t>
+  </si>
+  <si>
+    <t>cnn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -133,12 +180,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,149 +638,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C59A3E-0555-42E5-A1FA-CB9FC134182E}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="5" max="5" width="15.17578125" customWidth="1"/>
+    <col min="6" max="6" width="6.3515625" customWidth="1"/>
+    <col min="7" max="7" width="3.05859375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <f>C16/SUM(C16,C17)</f>
+        <v>0.79220779220779225</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D17/SUM(D16,D17)</f>
+        <v>0.82464454976303314</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="F16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <f>C16/SUM(C16:D16)</f>
+        <v>0.83181818181818179</v>
+      </c>
+      <c r="C16" s="3">
+        <v>183</v>
+      </c>
+      <c r="D16" s="4">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3">
+        <f>2*B16*C15/(B16+C15)</f>
+        <v>0.81152993348115299</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5">
+        <f>D17/SUM(C17:D17)</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="C17" s="5">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6">
+        <v>174</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3">
+        <f>2*B17*D15/(B17+D15)</f>
+        <v>0.80369515011547354</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5">
+        <f>(F16+F17)/2</f>
+        <v>0.80761254179831332</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F20" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <f>C22/SUM(C22,C23)</f>
+        <v>0.49065420560747663</v>
+      </c>
+      <c r="D21" s="4">
+        <f>D23/SUM(D22,D23)</f>
+        <v>0.68632707774798929</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3">
+        <f>(C22+D23)/SUM(C22:D23)*100</f>
+        <v>61.499148211243615</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3">
+        <f>C22/SUM(C22:D22)</f>
+        <v>0.47297297297297297</v>
+      </c>
+      <c r="C22" s="3">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4">
+        <v>117</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="3">
+        <f>2*B22*C21/(B22+C21)*100</f>
+        <v>48.165137614678898</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.5">
-      <c r="F23" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5">
+        <f>D23/SUM(C23:D23)</f>
+        <v>0.70136986301369864</v>
+      </c>
+      <c r="C23" s="5">
+        <v>109</v>
+      </c>
+      <c r="D23" s="6">
+        <v>256</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3">
+        <f>2*B23*D21/(B23+D21)*100</f>
+        <v>69.376693766937663</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="5">
+        <f>(F22+F23)/2</f>
+        <v>58.77091569080828</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <f>C28/SUM(C28,C29)</f>
+        <v>0.60829493087557607</v>
+      </c>
+      <c r="D27" s="4">
+        <f>D29/SUM(D28,D29)</f>
+        <v>0.87214611872146119</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <f>C28/SUM(C28:D28)</f>
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="C28" s="3">
+        <v>132</v>
+      </c>
+      <c r="D28" s="4">
+        <v>56</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3">
+        <f>2*B28*C27/(B28+C27)</f>
+        <v>0.65185185185185179</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <f>D29/SUM(C29:D29)</f>
+        <v>0.8179871520342612</v>
+      </c>
+      <c r="C29" s="5">
+        <v>85</v>
+      </c>
+      <c r="D29" s="6">
+        <v>382</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="3">
+        <f>2*B29*D27/(B29+D27)</f>
+        <v>0.84419889502762435</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="5">
+        <f>(F28+F29)/2</f>
+        <v>0.74802537343973807</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15987" windowHeight="4693" xr2:uid="{A105CE4C-1533-4C28-AA0B-591E544F79EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15987" windowHeight="4693" xr2:uid="{A105CE4C-1533-4C28-AA0B-591E544F79EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C59A3E-0555-42E5-A1FA-CB9FC134182E}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -715,385 +715,387 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>36</v>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <f>C15/SUM(C15,C16)</f>
+        <v>0.79220779220779225</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D16/SUM(D15,D16)</f>
+        <v>0.82464454976303314</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3">
+        <f>(C15+D16)/SUM(C15:D16)</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <f>C15/SUM(C15:D15)</f>
+        <v>0.83181818181818179</v>
+      </c>
+      <c r="C15" s="3">
+        <v>183</v>
+      </c>
+      <c r="D15" s="4">
+        <v>37</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3">
+        <f>2*B15*C14/(B15+C14)</f>
+        <v>0.81152993348115299</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5">
+        <f>D16/SUM(C16:D16)</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="C16" s="5">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6">
+        <v>174</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3">
+        <f>2*B16*D14/(B16+D14)</f>
+        <v>0.80369515011547354</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5">
+        <f>(F15+F16)/2</f>
+        <v>0.80761254179831332</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <f>C16/SUM(C16,C17)</f>
-        <v>0.79220779220779225</v>
-      </c>
-      <c r="D15" s="4">
-        <f>D17/SUM(D16,D17)</f>
-        <v>0.82464454976303314</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <f>C21/SUM(C21,C22)</f>
+        <v>0.470873786407767</v>
+      </c>
+      <c r="D20" s="4">
+        <f>D22/SUM(D21,D22)</f>
+        <v>0.71461187214611877</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3">
-        <v>77.5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
-        <f>C16/SUM(C16:D16)</f>
-        <v>0.83181818181818179</v>
-      </c>
-      <c r="C16" s="3">
-        <v>183</v>
-      </c>
-      <c r="D16" s="4">
-        <v>37</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3">
-        <f>2*B16*C15/(B16+C15)</f>
-        <v>0.81152993348115299</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5">
-        <f>D17/SUM(C17:D17)</f>
-        <v>0.78378378378378377</v>
-      </c>
-      <c r="C17" s="5">
-        <v>48</v>
-      </c>
-      <c r="D17" s="6">
-        <v>174</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3">
-        <f>2*B17*D15/(B17+D15)</f>
-        <v>0.80369515011547354</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="5">
-        <f>(F16+F17)/2</f>
-        <v>0.80761254179831332</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="3">
+        <f>(C21+D22)/SUM(C21:D22)</f>
+        <v>0.63664596273291929</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <f>C21/SUM(C21:D21)</f>
+        <v>0.43693693693693691</v>
+      </c>
+      <c r="C21" s="3">
+        <v>97</v>
+      </c>
+      <c r="D21" s="4">
+        <v>125</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3">
+        <f>2*B21*C20/(B21+C20)*100</f>
+        <v>45.32710280373832</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5">
+        <f>D22/SUM(C22:D22)</f>
+        <v>0.74170616113744081</v>
+      </c>
+      <c r="C22" s="5">
+        <v>109</v>
+      </c>
+      <c r="D22" s="6">
+        <v>313</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3">
+        <f>2*B22*D20/(B22+D20)*100</f>
+        <v>72.79069767441861</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="5">
+        <f>(F21+F22)/2</f>
+        <v>59.058900239078469</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <f>C22/SUM(C22,C23)</f>
-        <v>0.49065420560747663</v>
-      </c>
-      <c r="D21" s="4">
-        <f>D23/SUM(D22,D23)</f>
-        <v>0.68632707774798929</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <f>C27/SUM(C27,C28)</f>
+        <v>0.60829493087557607</v>
+      </c>
+      <c r="D26" s="4">
+        <f>D28/SUM(D27,D28)</f>
+        <v>0.87214611872146119</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="3">
-        <f>(C22+D23)/SUM(C22:D23)*100</f>
-        <v>61.499148211243615</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3">
-        <f>C22/SUM(C22:D22)</f>
-        <v>0.47297297297297297</v>
-      </c>
-      <c r="C22" s="3">
-        <v>105</v>
-      </c>
-      <c r="D22" s="4">
-        <v>117</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="3">
-        <f>2*B22*C21/(B22+C21)*100</f>
-        <v>48.165137614678898</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5">
-        <f>D23/SUM(C23:D23)</f>
-        <v>0.70136986301369864</v>
-      </c>
-      <c r="C23" s="5">
-        <v>109</v>
-      </c>
-      <c r="D23" s="6">
-        <v>256</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="3">
-        <f>2*B23*D21/(B23+D21)*100</f>
-        <v>69.376693766937663</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="5">
-        <f>(F22+F23)/2</f>
-        <v>58.77091569080828</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A25" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1">
-        <v>50</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="3">
+        <f>(C27+D28)/SUM(C27:D28)</f>
+        <v>0.78473282442748094</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <f>C27/SUM(C27:D27)</f>
+        <v>0.7021276595744681</v>
+      </c>
       <c r="C27" s="3">
-        <f>C28/SUM(C28,C29)</f>
-        <v>0.60829493087557607</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4">
-        <f>D29/SUM(D28,D29)</f>
-        <v>0.87214611872146119</v>
+        <v>56</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F27" s="3">
-        <v>77.5</v>
+        <f>2*B27*C26/(B27+C26)</f>
+        <v>0.65185185185185179</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3">
-        <f>C28/SUM(C28:D28)</f>
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="C28" s="3">
-        <v>132</v>
-      </c>
-      <c r="D28" s="4">
-        <v>56</v>
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <f>D28/SUM(C28:D28)</f>
+        <v>0.8179871520342612</v>
+      </c>
+      <c r="C28" s="5">
+        <v>85</v>
+      </c>
+      <c r="D28" s="6">
+        <v>382</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="3">
-        <f>2*B28*C27/(B28+C27)</f>
-        <v>0.65185185185185179</v>
+        <f>2*B28*D26/(B28+D26)</f>
+        <v>0.84419889502762435</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5">
-        <f>D29/SUM(C29:D29)</f>
-        <v>0.8179871520342612</v>
-      </c>
-      <c r="C29" s="5">
-        <v>85</v>
-      </c>
-      <c r="D29" s="6">
-        <v>382</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="3">
-        <f>2*B29*D27/(B29+D27)</f>
-        <v>0.84419889502762435</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="E30" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="5">
-        <f>(F28+F29)/2</f>
+      <c r="F29" s="5">
+        <f>(F27+F28)/2</f>
         <v>0.74802537343973807</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GITHUB\Movie_Classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\Movie_Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15987" windowHeight="4693" xr2:uid="{A105CE4C-1533-4C28-AA0B-591E544F79EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,21 +637,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C59A3E-0555-42E5-A1FA-CB9FC134182E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.17578125" customWidth="1"/>
-    <col min="6" max="6" width="6.3515625" customWidth="1"/>
-    <col min="7" max="7" width="3.05859375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -675,7 +675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -707,7 +707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -715,22 +715,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -738,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>28</v>
@@ -762,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -779,8 +779,8 @@
         <v>31</v>
       </c>
       <c r="F14" s="3">
-        <f>(C15+D16)/SUM(C15:D16)</f>
-        <v>0.80769230769230771</v>
+        <f>(C15+D16)/SUM(C15:D16)*100</f>
+        <v>80.769230769230774</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>34</v>
@@ -789,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -807,8 +807,8 @@
         <v>33</v>
       </c>
       <c r="F15" s="3">
-        <f>2*B15*C14/(B15+C14)</f>
-        <v>0.81152993348115299</v>
+        <f>2*B15*C14/(B15+C14)*100</f>
+        <v>81.152993348115302</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>34</v>
@@ -817,7 +817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -835,8 +835,8 @@
         <v>32</v>
       </c>
       <c r="F16" s="3">
-        <f>2*B16*D14/(B16+D14)</f>
-        <v>0.80369515011547354</v>
+        <f>2*B16*D14/(B16+D14)*100</f>
+        <v>80.36951501154735</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>34</v>
@@ -845,13 +845,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="5">
         <f>(F15+F16)/2</f>
-        <v>0.80761254179831332</v>
+        <v>80.761254179831326</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>34</v>
@@ -860,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
@@ -868,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
         <v>28</v>
@@ -892,7 +892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -909,8 +909,8 @@
         <v>31</v>
       </c>
       <c r="F20" s="3">
-        <f>(C21+D22)/SUM(C21:D22)</f>
-        <v>0.63664596273291929</v>
+        <f>(C21+D22)/SUM(C21:D22)*100</f>
+        <v>63.664596273291927</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>34</v>
@@ -919,7 +919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -947,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -975,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" s="8" t="s">
         <v>35</v>
       </c>
@@ -987,12 +987,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>28</v>
@@ -1013,7 +1013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1030,14 +1030,14 @@
         <v>31</v>
       </c>
       <c r="F26" s="3">
-        <f>(C27+D28)/SUM(C27:D28)</f>
-        <v>0.78473282442748094</v>
+        <f>(C27+D28)/SUM(C27:D28)*100</f>
+        <v>78.473282442748086</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -1055,14 +1055,14 @@
         <v>33</v>
       </c>
       <c r="F27" s="3">
-        <f>2*B27*C26/(B27+C26)</f>
-        <v>0.65185185185185179</v>
+        <f>2*B27*C26/(B27+C26)*100</f>
+        <v>65.185185185185176</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1080,20 +1080,20 @@
         <v>32</v>
       </c>
       <c r="F28" s="3">
-        <f>2*B28*D26/(B28+D26)</f>
-        <v>0.84419889502762435</v>
+        <f>2*B28*D26/(B28+D26)*100</f>
+        <v>84.41988950276243</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="5">
         <f>(F27+F28)/2</f>
-        <v>0.74802537343973807</v>
+        <v>74.802537343973796</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>34</v>
